--- a/public/templates/excel/import_users_vi.xlsx
+++ b/public/templates/excel/import_users_vi.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Departments" sheetId="4" r:id="rId2"/>
-    <sheet name="Roles" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -30,49 +28,25 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
     <t>Chức danh</t>
   </si>
   <si>
     <t xml:space="preserve">Phân quyền </t>
   </si>
   <si>
-    <t>住宅事業部チーム</t>
-  </si>
-  <si>
-    <t>FREEDOMのチーム</t>
-  </si>
-  <si>
-    <t>--Chọn phòng ban--</t>
-  </si>
-  <si>
-    <t>Leader</t>
-  </si>
-  <si>
     <t>Phòng ban</t>
   </si>
   <si>
-    <t>--Roles--</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>Member</t>
   </si>
   <si>
-    <t>Example name</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>example@gmail.com</t>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số điện thoại </t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
   </si>
 </sst>
 </file>
@@ -112,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,28 +94,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,160 +511,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14" style="5" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19" style="10" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="31" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Roles!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.5703125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
+      <formula1>"Admin, Leader, Manager, Member"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
